--- a/check_koeff.xlsx
+++ b/check_koeff.xlsx
@@ -226,10 +226,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$6</c:f>
+              <c:f>Лист1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>215760.830563</c:v>
                 </c:pt>
@@ -244,16 +244,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>206641.984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>202600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$6</c:f>
+              <c:f>Лист1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>72.785245000000003</c:v>
                 </c:pt>
@@ -268,6 +271,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>191.19624300000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>340</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,10 +603,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$6</c:f>
+              <c:f>Лист1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>215760.830563</c:v>
                 </c:pt>
@@ -615,16 +621,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>206641.984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>202600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$6</c:f>
+              <c:f>Лист1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>-0.309307</c:v>
                 </c:pt>
@@ -639,6 +648,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-5.7875959999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-19.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2272,10 +2284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2346,6 +2358,17 @@
         <v>206641.984</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-19.3</v>
+      </c>
+      <c r="B7">
+        <v>340</v>
+      </c>
+      <c r="C7">
+        <v>202600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
